--- a/tests/data.gui/test/nmr/dsn.2.no.ind/kev.nmr.constants.data.xlsx
+++ b/tests/data.gui/test/nmr/dsn.2.no.ind/kev.nmr.constants.data.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="79">
   <si>
     <t xml:space="preserve">tBu_TPP</t>
   </si>
@@ -251,13 +251,16 @@
     <t xml:space="preserve">-0.546630859375</t>
   </si>
   <si>
-    <t xml:space="preserve">0.0510897410086212</t>
+    <t xml:space="preserve">0.051089741009677</t>
   </si>
   <si>
     <t xml:space="preserve">Inf</t>
   </si>
   <si>
     <t xml:space="preserve">Adj. R^2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.987204</t>
   </si>
 </sst>
 </file>
@@ -725,8 +728,8 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="n">
-        <v>0.987204098630838</v>
+      <c r="A2" t="s">
+        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -779,7 +782,7 @@
         <v>63</v>
       </c>
       <c r="C3" t="n">
-        <v>0.000941097845955878</v>
+        <v>0.000941097845955879</v>
       </c>
       <c r="D3" t="n">
         <v>0.00191393216064431</v>
@@ -1404,10 +1407,10 @@
         <v>0.01</v>
       </c>
       <c r="B2" t="n">
-        <v>9.97167712423971e-21</v>
+        <v>0.00000000000000000000997167712423971</v>
       </c>
       <c r="C2" t="n">
-        <v>2.83228758410258e-23</v>
+        <v>0.0000000000000000000000283228758410258</v>
       </c>
     </row>
     <row r="3">
@@ -1418,7 +1421,7 @@
         <v>0.0212400330232659</v>
       </c>
       <c r="C3" t="n">
-        <v>5.9966976920316e-05</v>
+        <v>0.000059966976920316</v>
       </c>
     </row>
     <row r="4">
@@ -1918,25 +1921,25 @@
         <v>0.0033611045098807</v>
       </c>
       <c r="N3" t="n">
-        <v>0.00242107469649833</v>
+        <v>0.00242107469649877</v>
       </c>
       <c r="O3" t="n">
         <v>0.00205738494723429</v>
       </c>
       <c r="P3" t="n">
-        <v>0.0018065986039284</v>
+        <v>0.00180659860392884</v>
       </c>
       <c r="Q3" t="n">
         <v>0.000231221787501568</v>
       </c>
       <c r="R3" t="n">
-        <v>-0.000345751663789251</v>
+        <v>-0.000345751663788807</v>
       </c>
       <c r="S3" t="n">
         <v>-0.000557442239656591</v>
       </c>
       <c r="T3" t="n">
-        <v>-0.00170534889456952</v>
+        <v>-0.00170534889456908</v>
       </c>
       <c r="U3" t="n">
         <v>-0.00228625728825049</v>
@@ -1945,25 +1948,25 @@
         <v>-0.00295765950223847</v>
       </c>
       <c r="W3" t="n">
-        <v>-0.00292202409347286</v>
+        <v>-0.00292202409347242</v>
       </c>
       <c r="X3" t="n">
-        <v>-0.00217438750478616</v>
+        <v>-0.00217438750478571</v>
       </c>
       <c r="Y3" t="n">
-        <v>-0.00239718508442799</v>
+        <v>-0.00239718508442754</v>
       </c>
       <c r="Z3" t="n">
-        <v>-0.000846154648093567</v>
+        <v>-0.000846154648093123</v>
       </c>
       <c r="AA3" t="n">
-        <v>0.000870409307729858</v>
+        <v>0.000870409307730302</v>
       </c>
       <c r="AB3" t="n">
-        <v>0.0022505745973862</v>
+        <v>0.00225057459738665</v>
       </c>
       <c r="AC3" t="n">
-        <v>0.00349638258906859</v>
+        <v>0.00349638258906904</v>
       </c>
     </row>
   </sheetData>
@@ -2199,25 +2202,25 @@
         <v>-0.00121011863542059</v>
       </c>
       <c r="N3" t="n">
-        <v>-0.000870984169693969</v>
+        <v>-0.000870984169694129</v>
       </c>
       <c r="O3" t="n">
         <v>-0.000739321887032588</v>
       </c>
       <c r="P3" t="n">
-        <v>-0.000648409519750341</v>
+        <v>-0.0006484095197505</v>
       </c>
       <c r="Q3" t="n">
-        <v>-8.29197731761046e-05</v>
+        <v>-0.0000829197731761046</v>
       </c>
       <c r="R3" t="n">
-        <v>0.000123836555798442</v>
+        <v>0.000123836555798283</v>
       </c>
       <c r="S3" t="n">
         <v>0.000199371330349282</v>
       </c>
       <c r="T3" t="n">
-        <v>0.000609227241558133</v>
+        <v>0.000609227241557974</v>
       </c>
       <c r="U3" t="n">
         <v>0.000815617455049942</v>
@@ -2226,25 +2229,25 @@
         <v>0.00105367278312735</v>
       </c>
       <c r="W3" t="n">
-        <v>0.00103927446773114</v>
+        <v>0.00103927446773098</v>
       </c>
       <c r="X3" t="n">
-        <v>0.000771907950153061</v>
+        <v>0.000771907950152903</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.000849613710589399</v>
+        <v>0.000849613710589241</v>
       </c>
       <c r="Z3" t="n">
-        <v>0.000299280107556173</v>
+        <v>0.000299280107556015</v>
       </c>
       <c r="AA3" t="n">
-        <v>-0.000307120181973063</v>
+        <v>-0.00030712018197322</v>
       </c>
       <c r="AB3" t="n">
-        <v>-0.000792539563118006</v>
+        <v>-0.000792539563118162</v>
       </c>
       <c r="AC3" t="n">
-        <v>-0.00122887058522023</v>
+        <v>-0.00122887058522038</v>
       </c>
     </row>
   </sheetData>
